--- a/iworks-manager-scripts/input/表格设计.xlsx
+++ b/iworks-manager-scripts/input/表格设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="894" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="894" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表设计模板" sheetId="28" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="字典常量" sheetId="30" r:id="rId3"/>
     <sheet name="字典常量数据" sheetId="31" r:id="rId4"/>
     <sheet name="系统用户登录信息" sheetId="32" r:id="rId5"/>
+    <sheet name="系统用户登录日志" sheetId="33" r:id="rId6"/>
+    <sheet name="用户基本信息" sheetId="34" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>1.表描述</t>
   </si>
@@ -312,6 +314,18 @@
     <t>varchar(255)</t>
   </si>
   <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>tag_type</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>success,info,warning,danger</t>
+  </si>
+  <si>
     <t>创建人</t>
   </si>
   <si>
@@ -417,12 +431,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>index_user_no_name</t>
-  </si>
-  <si>
-    <t>user_no,user_name</t>
-  </si>
-  <si>
     <t>用户编号</t>
   </si>
   <si>
@@ -465,6 +473,9 @@
     <t>error_count</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>密码输入错误次数</t>
   </si>
   <si>
@@ -475,6 +486,87 @@
   </si>
   <si>
     <t>1-正常；2-冻结；3-锁定；4-注销</t>
+  </si>
+  <si>
+    <t>basic.t_user_login_logs</t>
+  </si>
+  <si>
+    <t>系统用户登录日志</t>
+  </si>
+  <si>
+    <t>用户主键</t>
+  </si>
+  <si>
+    <t>user_pkid</t>
+  </si>
+  <si>
+    <t>登陆IP</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>登陆地址</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>使用的浏览器</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>使用的操作系统</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>登陆操作结果</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>1-成功；2-失败；</t>
+  </si>
+  <si>
+    <t>basic.t_user_basic_info</t>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+  </si>
+  <si>
+    <t>index_user_pkid</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>nick_name</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>邮箱账户</t>
   </si>
 </sst>
 </file>
@@ -519,6 +611,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -528,45 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +641,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -587,7 +662,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,10 +699,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,7 +717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,21 +733,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,7 +777,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,37 +873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,31 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,25 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,13 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,49 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,11 +1294,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,15 +1320,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,35 +1341,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,167 +1362,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,6 +1572,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1587,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1495,6 +1599,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1507,6 +1614,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1522,7 +1632,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1543,6 +1653,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1552,13 +1665,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
@@ -1571,6 +1687,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1588,46 +1707,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2048,366 +2137,366 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="10" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15"/>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="28"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="25"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="34" t="s">
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="34"/>
+      <c r="E18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="E21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="56" t="s">
+      <c r="E22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="34"/>
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="34"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="40"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" ht="17.25" spans="2:7">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" ht="15"/>
   </sheetData>
@@ -2444,7 +2533,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G30"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
@@ -2456,382 +2545,400 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="10" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15"/>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="25"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="34" t="s">
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="34"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="56" t="s">
+      <c r="E20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G20" s="42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="34" t="s">
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="56" t="s">
+      <c r="E21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G21" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="34" t="s">
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="34" t="s">
+      <c r="E22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D23" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="34" t="s">
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D25" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="40"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" ht="17.25" spans="2:7">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" ht="15"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:7">
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" ht="17.25" spans="2:7">
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" ht="15"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C3:G3"/>
@@ -2861,10 +2968,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2873,366 +2980,388 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15"/>
+    <row r="1" customFormat="1" ht="15" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C22" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="C24" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="25"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="D24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="34">
-        <v>1</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" ht="17.25" spans="2:7">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" customFormat="1" ht="15"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28" ht="17.25" spans="2:7">
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" customFormat="1" ht="15" spans="6:6">
+      <c r="F29" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C3:G3"/>
@@ -3257,10 +3386,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G30"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3269,410 +3398,432 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15"/>
+    <row r="1" customFormat="1" ht="15" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="C15" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="C26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="D26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1</v>
-      </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="34">
-        <v>1</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="34">
-        <v>1</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="E27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" ht="17.25" spans="2:7">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" customFormat="1" ht="15"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:7">
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" ht="17.25" spans="2:7">
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" customFormat="1" ht="15" spans="6:6">
+      <c r="F31" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C3:G3"/>
@@ -3699,8 +3850,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3709,445 +3860,1374 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15"/>
+    <row r="1" customFormat="1" ht="15" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="56"/>
+      <c r="B21" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:7">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:7">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:7">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:7">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" ht="17.25" spans="2:7">
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" customFormat="1" ht="15" spans="6:6">
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="28"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="31"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="56"/>
+      <c r="B19" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="56"/>
+      <c r="B20" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="56"/>
+      <c r="B21" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:7">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:7">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:7">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:7">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" ht="17.25" spans="2:7">
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" customFormat="1" ht="15" spans="6:6">
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="B13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="E14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="34" t="s">
+      <c r="E22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="E24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="34">
-        <v>1</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="34">
-        <v>1</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="E26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="E27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" ht="16.5" spans="2:7">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" ht="16.5" spans="2:7">
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" ht="16.5" spans="2:7">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" ht="17.25" spans="2:7">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" customFormat="1" ht="15"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" customFormat="1" ht="15" spans="6:6">
+      <c r="F33" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C3:G3"/>
